--- a/DatabaseSpec.xlsx
+++ b/DatabaseSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Dev\excel-to-ddl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDC45A9-D909-4627-8F71-EA02B3E2C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C50E8-67F6-4CAE-9580-A3E7C33C487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="813" xr2:uid="{2C7DF4D4-C5FE-4B18-894B-6E126A982246}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Not Null</t>
     <phoneticPr fontId="1"/>
@@ -62,33 +62,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザーマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mail</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -96,13 +77,6 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>有効フラグ</t>
-    <rPh sb="0" eb="2">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>active</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -152,6 +126,34 @@
   </si>
   <si>
     <t>Auto Increment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Account name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mail address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hashed password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Active flag</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -245,11 +247,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6744A7A-1113-4262-ABDB-B9F27296337D}">
-  <dimension ref="B2:J14"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,98 +577,104 @@
     <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.625" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="24">
+    <row r="2" spans="2:11" ht="24">
       <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="24">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="8" spans="2:10" ht="24">
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -683,16 +691,17 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -704,16 +713,17 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E12" s="1">
         <v>255</v>
@@ -723,18 +733,21 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1">
         <v>255</v>
@@ -746,13 +759,14 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
@@ -765,12 +779,13 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
